--- a/Hardware/SmartMeter_bom.xlsx
+++ b/Hardware/SmartMeter_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Documents\Workspace\AvansMonitor\SmartMeter\SmartMeter_DIY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudStation\Work\Avans\ETI\SmartMeter\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA820F9-CFA3-4E2D-8EF7-E0EE8DD2208E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8856D249-9857-4031-83C6-C8060275A03F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E00FB283-A7D0-481F-A687-7B7280055409}"/>
+    <workbookView xWindow="5187" yWindow="140" windowWidth="23780" windowHeight="13327" xr2:uid="{E00FB283-A7D0-481F-A687-7B7280055409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Item</t>
   </si>
@@ -172,13 +172,28 @@
   </si>
   <si>
     <t>Smart Meter</t>
+  </si>
+  <si>
+    <t>Farnell Code</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>100 Ohm</t>
+  </si>
+  <si>
+    <t>1000 Ohm</t>
+  </si>
+  <si>
+    <t>10kOhm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +207,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,12 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,15 +260,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFBAB872-4299-4CAE-BF4F-656D760B0067}" name="Table1" displayName="Table1" ref="A7:F19" totalsRowShown="0">
-  <autoFilter ref="A7:F19" xr:uid="{92D283AA-CB6A-4A13-B56C-9F99F8812BDD}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFBAB872-4299-4CAE-BF4F-656D760B0067}" name="Table1" displayName="Table1" ref="A7:G19" totalsRowShown="0">
+  <autoFilter ref="A7:G19" xr:uid="{92D283AA-CB6A-4A13-B56C-9F99F8812BDD}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1E9AB108-9AEF-4AA6-BEB9-156A85ACED80}" name="Item"/>
     <tableColumn id="2" xr3:uid="{A8BA98B7-FCC0-4AFF-BE16-6B0DFEEDA40A}" name="Qty"/>
     <tableColumn id="3" xr3:uid="{35111DF5-8E20-4DB8-934C-71290B1A1729}" name="Reference(s)"/>
     <tableColumn id="4" xr3:uid="{FEDCAD3E-4158-444C-B012-DD1AD1235B90}" name="Value"/>
     <tableColumn id="5" xr3:uid="{8E774373-E352-46FA-987D-FEDEF7CEB20E}" name="EDA part"/>
     <tableColumn id="6" xr3:uid="{53615DFE-A9E4-4D73-BC86-D251E5D4094E}" name="Price"/>
+    <tableColumn id="7" xr3:uid="{D7AB2A3F-67A3-4DD7-9384-A55CE64B019F}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,28 +572,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656FF0E0-5A24-4E49-8021-6DC48EADF2D0}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.7" x14ac:dyDescent="0.85">
       <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -578,7 +601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -586,7 +609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
         <v>42</v>
       </c>
@@ -594,7 +617,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -613,8 +641,11 @@
       <c r="F7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -634,7 +665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -653,8 +684,11 @@
       <c r="F9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>2889103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>3</v>
       </c>
@@ -671,7 +705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -688,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>5</v>
       </c>
@@ -707,8 +741,11 @@
       <c r="F12">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <v>1574381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>6</v>
       </c>
@@ -728,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>7</v>
       </c>
@@ -748,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>8</v>
       </c>
@@ -768,7 +805,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>9</v>
       </c>
@@ -788,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>10</v>
       </c>
@@ -807,8 +844,11 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1829495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>11</v>
       </c>
@@ -825,7 +865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>12</v>
       </c>
@@ -843,6 +883,30 @@
       </c>
       <c r="F19">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="3">
+        <v>9339043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="3">
+        <v>9339051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9339060</v>
       </c>
     </row>
   </sheetData>
